--- a/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
+++ b/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,328 +512,448 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>64.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>84.82</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.13</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6316</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9990</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>090007</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>大成策略回报混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>63.13</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>9.38</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7682</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>090013</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>大成竞争优势混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>61.32</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>6.22</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006567</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中泰星元价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>81.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>006624</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>中泰玉衡价值优选混合</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>81.24</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>6.33</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>008342</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>九泰科鑫策略精选灵活配置混合A</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>44.49</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.22</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>008343</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>九泰科鑫策略精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>44.49</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1.22</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004249</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>80.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004393</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>80.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007592</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏价值精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>87.82</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006567</t>
+          <t>952009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中泰星元价值优选灵活配置混合</t>
+          <t>国泰君安君得鑫两年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.29</t>
+          <t>96.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2429</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006624</t>
+          <t>952099</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰玉衡价值优选混合</t>
+          <t>国泰君安君得鑫两年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.79</t>
+          <t>75.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008342</t>
+          <t>952004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>九泰科鑫策略精选灵活配置混合A</t>
+          <t>国泰君安君得明混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>35.36</t>
+          <t>51.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3429</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008343</t>
+          <t>008638</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>九泰科鑫策略精选灵活配置混合C</t>
+          <t>广发科技创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>35.36</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5852</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>288001</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏经典配置混合</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>61.55</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5334</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007012</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>湘财长顺混合A</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>67.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5146</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>288001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>华夏经典配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>11.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>61.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1080,15 +1290,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>92.60</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>5.97</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>006567</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>中泰星元价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>67.28</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.32</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1136,15 +1366,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>67.57</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>5.89</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519007</t>
+          <t>007012</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海富通强化回报混合</t>
+          <t>湘财长顺混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>34.36</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008638</t>
+          <t>006624</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发科技创新混合</t>
+          <t>中泰玉衡价值优选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>008270</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>大成睿享混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>82.62</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>7.47</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008270</t>
+          <t>519007</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大成睿享混合C</t>
+          <t>海富通强化回报混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009205</t>
+          <t>007013</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合A</t>
+          <t>湘财长顺混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>35.55</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009206</t>
+          <t>009205</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合C</t>
+          <t>兴银丰运稳益回报混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>35.55</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2.42</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>952004</t>
+          <t>008342</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国泰君安君得明混合</t>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>952009</t>
+          <t>009206</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国泰君安君得鑫两年持有期混合A</t>
+          <t>兴银丰运稳益回报混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>952099</t>
+          <t>008343</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国泰君安君得鑫两年持有期混合C</t>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
+++ b/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8664</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4677</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1223</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5059</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4879</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
+++ b/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2246,4 +2247,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2295</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4487</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4261</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
+++ b/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2721,4 +2722,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
+++ b/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2730,7 +2731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2741,17 +2742,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2761,14 +2782,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.15</v>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2777,14 +2820,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.21</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4306</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2793,14 +2858,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.15</v>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3831</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2809,13 +2896,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
+++ b/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3129,7 +3130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3140,17 +3141,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3160,14 +3181,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.85</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9505</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3176,14 +3219,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.15</v>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8490</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3192,14 +3257,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.21</v>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7739</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3208,14 +3295,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.15</v>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3224,13 +3333,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
+++ b/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3490,7 +3491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3501,17 +3502,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3521,14 +3542,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.11</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3537,14 +3580,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.85</v>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8771</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3553,14 +3618,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.15</v>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7245</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3569,14 +3656,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.21</v>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3585,14 +3694,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20.15</v>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3601,13 +3732,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
+++ b/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,6 +457,1670 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8771</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7245</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9505</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8490</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7739</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4306</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3831</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2295</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4487</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4261</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -508,36 +2172,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>952004</t>
+          <t>952009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰君安君得明混合</t>
+          <t>国泰君安君得鑫两年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>64.96</t>
+          <t>100.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>88.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.6316</t>
+          <t>6.8664</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -546,36 +2210,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>952099</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>国泰君安君得鑫两年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>79.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>88.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9990</t>
+          <t>5.4677</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -584,36 +2248,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>952004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>国泰君安君得明混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>48.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>63.13</t>
+          <t>87.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7682</t>
+          <t>4.1223</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -622,36 +2286,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007592</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏价值精选混合</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.82</t>
+          <t>88.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2794</t>
+          <t>0.5059</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -660,36 +2324,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006567</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中泰星元价值优选灵活配置混合</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.32</t>
+          <t>75.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2377</t>
+          <t>0.4879</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -698,36 +2362,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>090013</t>
+          <t>006567</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成竞争优势混合</t>
+          <t>中泰星元价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>61.32</t>
+          <t>80.19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1599</t>
+          <t>0.2432</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -736,36 +2400,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006624</t>
+          <t>007592</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中泰玉衡价值优选混合</t>
+          <t>华夏价值精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.24</t>
+          <t>88.99</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1038</t>
+          <t>0.2260</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -774,36 +2438,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008270</t>
+          <t>090013</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成睿享混合C</t>
+          <t>大成竞争优势混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>76.12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0654</t>
+          <t>0.1158</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -812,36 +2476,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008342</t>
+          <t>006624</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>九泰科鑫策略精选灵活配置混合A</t>
+          <t>中泰玉衡价值优选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>44.49</t>
+          <t>81.17</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0205</t>
+          <t>0.0798</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -850,36 +2514,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004393</t>
+          <t>008270</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
+          <t>大成睿享混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>80.84</t>
+          <t>88.93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0192</t>
+          <t>0.0496</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -888,32 +2552,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>008061</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>惠升惠新灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.01</t>
+          <t>74.36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0356</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -926,32 +2590,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008343</t>
+          <t>008062</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>九泰科鑫策略精选灵活配置混合C</t>
+          <t>惠升惠新灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>44.49</t>
+          <t>74.36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -963,7 +2627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1741,7 +3405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1798,36 +3462,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>952009</t>
+          <t>952004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰君安君得鑫两年持有期混合A</t>
+          <t>国泰君安君得明混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100.24</t>
+          <t>64.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.03</t>
+          <t>84.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.8664</t>
+          <t>4.6316</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1836,36 +3500,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>952099</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰君安君得鑫两年持有期混合C</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79.82</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.03</t>
+          <t>86.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.4677</t>
+          <t>0.9990</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1874,36 +3538,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>952004</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰君安君得明混合</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>48.90</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.35</t>
+          <t>63.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.1223</t>
+          <t>0.7682</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1912,36 +3576,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>007592</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>华夏价值精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.93</t>
+          <t>87.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5059</t>
+          <t>0.2794</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1950,36 +3614,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>006567</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>中泰星元价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75.71</t>
+          <t>81.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4879</t>
+          <t>0.2377</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1988,36 +3652,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006567</t>
+          <t>090013</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中泰星元价值优选灵活配置混合</t>
+          <t>大成竞争优势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>61.32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2432</t>
+          <t>0.1599</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2026,36 +3690,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007592</t>
+          <t>006624</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏价值精选混合</t>
+          <t>中泰玉衡价值优选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>81.24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2260</t>
+          <t>0.1038</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2064,36 +3728,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>090013</t>
+          <t>008270</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成竞争优势混合</t>
+          <t>大成睿享混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76.12</t>
+          <t>86.51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1158</t>
+          <t>0.0654</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2102,36 +3766,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006624</t>
+          <t>008342</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中泰玉衡价值优选混合</t>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>81.17</t>
+          <t>44.49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0798</t>
+          <t>0.0205</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2140,36 +3804,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008270</t>
+          <t>004393</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成睿享混合C</t>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.93</t>
+          <t>80.84</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0496</t>
+          <t>0.0192</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2178,32 +3842,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008061</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>惠升惠新灵活配置混合A</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>74.36</t>
+          <t>80.01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0356</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2216,1700 +3880,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008062</t>
+          <t>008343</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>惠升惠新灵活配置混合C</t>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>74.36</t>
+          <t>44.49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0100</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>952004</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰君安君得明混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>35.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2295</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006567</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中泰星元价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4487</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4261</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>090007</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成策略回报混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>67.62</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4098</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006624</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中泰玉衡价值优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2016</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007592</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏价值精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1944</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>090013</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>61.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0974</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009205</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>兴银丰运稳益回报混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>26.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0437</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.75</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0435</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009206</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>兴银丰运稳益回报混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>26.83</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>930602</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国信价值智选混合型集合资产管理计划</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>50.92</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>54.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>71.62</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.3260</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006567</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中泰星元价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4306</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>090007</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成策略回报混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>58.79</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3831</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006624</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中泰玉衡价值优选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.43</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3246</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007592</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏价值精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1882</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>516570</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0981</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>71.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0395</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.93</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0339</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>930602</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国信价值智选混合型集合资产管理计划</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>50.19</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006567</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中泰星元价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>44.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9505</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>013776</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中泰兴为价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8490</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006624</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中泰玉衡价值优选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.95</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7739</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013777</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中泰兴为价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3641</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007592</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏价值精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1056</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0334</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>930602</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国信价值智选混合型集合资产管理计划</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>67.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>516570</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>96.03</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006567</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中泰星元价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3727</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>012940</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中泰星元价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8771</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>013776</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中泰兴为价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7245</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013777</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中泰兴为价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2488</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519117</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浦银安盛基本面400指数</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>162907</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰信中证锐联基本面400指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>19</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20.15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>12</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
+++ b/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3.23</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>4.11</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3.85</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>4.15</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>18.21</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>20.15</v>
+        <v>18.21</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.3</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5009</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1243,7 +1468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1641,7 +1866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2115,7 +2340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2627,7 +2852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3405,7 +3630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
+++ b/数据整理/stocks/A股/上证主板/600352-浙江龙盛.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.89</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>3.23</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.11</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>3.85</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>4.15</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>18.21</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>20.15</v>
+        <v>18.21</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,542 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>7.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6316</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9990</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7682</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1146,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3097</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +1523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1108,7 +1807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1468,7 +2167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1866,7 +2565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2340,7 +3039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2852,7 +3551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3628,516 +4327,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>952004</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰君安君得明混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>64.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.6316</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9990</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>090007</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成策略回报混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.38</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7682</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007592</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏价值精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2794</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006567</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中泰星元价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2377</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>090013</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>61.32</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1599</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006624</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中泰玉衡价值优选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1038</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0654</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008342</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>九泰科鑫策略精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>44.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0205</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004393</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>80.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004249</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.01</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008343</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>九泰科鑫策略精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>44.49</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>